--- a/medicine/Enfance/Masajirō_Kojima/Masajirō_Kojima.xlsx
+++ b/medicine/Enfance/Masajirō_Kojima/Masajirō_Kojima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Masajir%C5%8D_Kojima</t>
+          <t>Masajirō_Kojima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kojima Masajirō (小島 政二郎?, 31 janvier 1894 - 24 mars 1994) est un romancier japonais de l'ère Shōwa.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Masajir%C5%8D_Kojima</t>
+          <t>Masajirō_Kojima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kojima naît dans le quartier populaire de Shitaya à Tokyo dans une famille de marchands de vêtements. Tandis qu'il fréquente l'université Keiō, il étudie la littérature japonaise de l'époque d'Edo et les œuvres d'auteurs européens. Il était particulièrement attiré par les œuvres de Nagai Kafū et Mori Ōgai. Sa carrière littéraire commence alors qu'il est étudiant, quand il fait paraître des nouvelles dans Mita Bungaku, le journal du département de littérature de l'Université Keiō.
 Après l'obtention de son diplôme en 1918, il travaille dans le registre de la littérature d'enfance et de jeunesse, publie la revue littéraire, Akai Tori (« L'Oiseau rouge »), et écrit de contes pour enfants.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Masajir%C5%8D_Kojima</t>
+          <t>Masajirō_Kojima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Ouvrages (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ichimae Kamban (一枚看板)
 Ie (家)
